--- a/02table/TableS3_Gene_Ontology_for_modules.xlsx
+++ b/02table/TableS3_Gene_Ontology_for_modules.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CA7399-14F0-EC4B-865E-B5C6EE9BA3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A1DF52-FA19-1544-B485-60A674B8DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34180" yWindow="7120" windowWidth="34180" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25840" yWindow="7520" windowWidth="34180" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$5072</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8706,9 +8717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
